--- a/database/excel_database/ModelConfig.xlsx
+++ b/database/excel_database/ModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16475" windowHeight="8904"/>
+    <workbookView windowWidth="17328" windowHeight="8904"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -44,6 +44,12 @@
   <si>
     <t>Assets/AssetPackage/Model/WolfWithMoon/Prefab/WolfWithMoon.prefab</t>
   </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Assets/AssetPackage/Role/DogKnight/Prefab/Player.prefab</t>
+  </si>
 </sst>
 </file>
 
@@ -64,9 +70,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,25 +92,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,100 +183,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,34 +417,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -477,8 +461,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,11 +508,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,130 +537,130 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="69.4444444444444" customWidth="1"/>
@@ -1067,6 +1073,17 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/database/excel_database/ModelConfig.xlsx
+++ b/database/excel_database/ModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17328" windowHeight="8904"/>
+    <workbookView windowWidth="17544" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Assets/AssetPackage/Role/DogKnight/Prefab/Player.prefab</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Assets/AssetPackage/Model/Jungle/Prefab/Jungle.prefab</t>
   </si>
 </sst>
 </file>
@@ -56,8 +62,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -71,15 +77,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,24 +119,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,44 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,6 +184,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,22 +207,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,11 +425,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,6 +443,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,7 +481,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,7 +490,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,26 +510,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="69.4444444444444" customWidth="1"/>
@@ -1084,6 +1090,17 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/database/excel_database/ModelConfig.xlsx
+++ b/database/excel_database/ModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17544" windowHeight="9467"/>
+    <workbookView windowWidth="21000" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Assets/AssetPackage/Model/Jungle/Prefab/Jungle.prefab</t>
+  </si>
+  <si>
+    <t>MoonSword</t>
+  </si>
+  <si>
+    <t>Assets/AssetPackage/Item/Weapon/Prefab/MoonSword.prefab</t>
   </si>
 </sst>
 </file>
@@ -62,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -83,6 +89,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -91,62 +105,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,9 +151,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,17 +188,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,24 +211,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,37 +235,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,37 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,103 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,53 +432,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,8 +449,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -510,13 +473,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,145 +534,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="69.4444444444444" customWidth="1"/>
@@ -1101,6 +1107,17 @@
       </c>
       <c r="C6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/database/excel_database/ModelConfig.xlsx
+++ b/database/excel_database/ModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9275"/>
+    <workbookView windowWidth="21000" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Assets/AssetPackage/Item/Weapon/Prefab/MoonSword.prefab</t>
+  </si>
+  <si>
+    <t>GreatSword</t>
+  </si>
+  <si>
+    <t>Assets/AssetPackage/Item/Weapon/Prefab/SwordPolyart.prefab</t>
   </si>
 </sst>
 </file>
@@ -68,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -83,9 +89,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,130 +201,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +432,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,71 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -526,6 +512,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -534,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="69.4444444444444" customWidth="1"/>
@@ -1118,6 +1124,17 @@
       </c>
       <c r="C7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
